--- a/Initial.xlsx
+++ b/Initial.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90D157-E0D0-4C73-B432-3C28FE84F093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF8697C-7ABD-46FD-81C2-F14FDF081ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Проверка 1</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>Тест 4</t>
+  </si>
+  <si>
+    <t>Проверка 5</t>
+  </si>
+  <si>
+    <t>Проверка 6</t>
   </si>
 </sst>
 </file>
@@ -367,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +401,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -403,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD6ECCF-0F36-46CC-8A05-AECD1EC53A2B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +443,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FDFF51-4B94-4767-9F7D-802C9E52BFE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>